--- a/antwoordblad-assessment-theorie.xlsx
+++ b/antwoordblad-assessment-theorie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
   <si>
     <t xml:space="preserve">Relational data storage Asessment Theorie</t>
   </si>
@@ -29,6 +29,42 @@
   </si>
   <si>
     <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 14 (13 wordt daar overgeslagen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op de educom site is dit vraag 21 (hier loopt het weer goed)</t>
   </si>
   <si>
     <t xml:space="preserve">bestaat niet</t>
@@ -86,7 +122,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +143,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9211E"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFF10D0C"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,27 +239,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,7 +268,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -298,17 +332,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33984375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="5.43"/>
@@ -348,6 +382,8 @@
       <c r="G2" s="5" t="n">
         <v>6</v>
       </c>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
@@ -369,6 +405,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -379,9 +419,13 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -396,22 +440,26 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
         <v>2</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
@@ -539,6 +587,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -554,6 +605,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -571,6 +625,9 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -590,6 +647,9 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -607,6 +667,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -624,6 +687,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -637,6 +703,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -650,6 +719,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -663,6 +735,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -782,7 +857,7 @@
       <c r="A32" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -819,7 +894,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -865,7 +940,7 @@
       <c r="A37" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -924,7 +999,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -946,8 +1021,18 @@
       <c r="G42" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.277777777777778"/>
